--- a/dk/BIMTypeCode - Værdiliste - 2022DK.xlsx
+++ b/dk/BIMTypeCode - Værdiliste - 2022DK.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuboarkitekter.sharepoint.com/sites/BIM7AA/Shared Documents/BIMTypeCode/BIMTypeCode 2022 DK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuboarkitekter.sharepoint.com/sites/BIM7AA/Shared Documents/BIMTypeCode/BIMTypeCode 2022 DK - Trin 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:1_{3F041B59-6AFC-424D-948D-9AD492F7B426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5211B2BF-ED29-45EF-A2CC-D1C34FD62D3D}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="13_ncr:1_{3F041B59-6AFC-424D-948D-9AD492F7B426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A1D600A-C1B7-4C3A-80D5-5BDE5BF40CFD}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11010" xr2:uid="{9AF57205-CBE7-40ED-98D9-5601CDE464FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9AF57205-CBE7-40ED-98D9-5601CDE464FA}"/>
   </bookViews>
   <sheets>
     <sheet name="BIMTypeCode2022DK" sheetId="1" r:id="rId1"/>
+    <sheet name="LOG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="933">
-  <si>
-    <t>Niveau</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="938">
+  <si>
+    <t>Sortering</t>
   </si>
   <si>
     <t>BIMTypeCode</t>
@@ -199,9 +201,6 @@
     <t>104</t>
   </si>
   <si>
-    <t>- verkant -</t>
-  </si>
-  <si>
     <t>105</t>
   </si>
   <si>
@@ -694,6 +693,9 @@
     <t>Stålbjælker</t>
   </si>
   <si>
+    <t>254</t>
+  </si>
+  <si>
     <t>255</t>
   </si>
   <si>
@@ -898,7 +900,7 @@
     <t>309</t>
   </si>
   <si>
-    <t>Øvrigt terræn komplettering</t>
+    <t>Øvrigt terræn kompletteringer</t>
   </si>
   <si>
     <t>31</t>
@@ -2833,14 +2835,32 @@
     <t>991</t>
   </si>
   <si>
-    <t>254</t>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Dato</t>
+  </si>
+  <si>
+    <t>Emne</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Første offentlige version udsendt</t>
+  </si>
+  <si>
+    <t>Redaktionelle ændringer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2909,6 +2929,20 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2991,7 +3025,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2999,11 +3033,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3032,6 +3075,12 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3089,7 +3138,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{017DA169-0F14-46DD-8C37-546C930AE54D}" name="TypeCodes" displayName="TypeCodes" ref="A1:D416" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D416" xr:uid="{DDB7C409-4221-479A-AD41-233EFF7AFD26}"/>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{36C6B49A-E69F-4CEA-A359-4EDE2E4E83C0}" name="Niveau" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{36C6B49A-E69F-4CEA-A359-4EDE2E4E83C0}" name="Sortering" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{EC1F7401-DDA2-42BE-BC4E-15B57DBD8D5D}" name="BIMTypeCode" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B6ECCC1E-E52E-4CBC-96B7-B36F31DE637E}" name="BIMTypeCode-Description" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{D1902711-84E3-44E2-B32F-47A4CA0F96EC}" name="Beskrivelse / Synonymer/Eksempler" dataDxfId="0"/>
@@ -3397,19 +3446,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4C628B-1EF4-48E0-987B-7B5E51CAF0FF}">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="134.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3423,7 +3472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -3437,7 +3486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" outlineLevel="1">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -3449,21 +3498,21 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" outlineLevel="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" outlineLevel="1">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -3475,21 +3524,21 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" outlineLevel="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" outlineLevel="1">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
@@ -3501,21 +3550,21 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" outlineLevel="1">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" outlineLevel="1">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -3527,21 +3576,21 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" outlineLevel="1">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" outlineLevel="1">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
@@ -3553,21 +3602,21 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" outlineLevel="1">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" outlineLevel="1">
       <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
@@ -3579,21 +3628,21 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" outlineLevel="1">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" outlineLevel="1">
       <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
@@ -3605,21 +3654,21 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" outlineLevel="1">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" outlineLevel="1">
       <c r="A17" s="8" t="s">
         <v>8</v>
       </c>
@@ -3631,21 +3680,21 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" outlineLevel="1">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
@@ -3659,7 +3708,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" outlineLevel="1">
       <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
@@ -3671,7 +3720,7 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" outlineLevel="1">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -3685,7 +3734,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" outlineLevel="1">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -3699,7 +3748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" outlineLevel="1">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -3713,7 +3762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" outlineLevel="1">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -3721,848 +3770,848 @@
         <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" outlineLevel="1">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:4" outlineLevel="1">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" outlineLevel="1">
       <c r="A27" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" outlineLevel="1">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:4" outlineLevel="1">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:4" outlineLevel="1">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:4" outlineLevel="1">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:4" outlineLevel="1">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:4" outlineLevel="1">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:4" outlineLevel="1">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" outlineLevel="1">
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" outlineLevel="1">
       <c r="A36" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" outlineLevel="1">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:4" outlineLevel="1">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" outlineLevel="1">
       <c r="A39" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" outlineLevel="1">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:4" outlineLevel="1">
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" outlineLevel="1">
       <c r="A43" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" outlineLevel="1">
+      <c r="A44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:4" outlineLevel="1">
+      <c r="A45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:4" outlineLevel="1">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:4" outlineLevel="1">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:4" outlineLevel="1">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:4" outlineLevel="1">
+      <c r="A49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:4" outlineLevel="1">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" outlineLevel="1">
       <c r="A51" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" outlineLevel="1">
+      <c r="A52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:4" outlineLevel="1">
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:4" outlineLevel="1">
+      <c r="A54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:4" outlineLevel="1">
+      <c r="A55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:4" outlineLevel="1">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:4" outlineLevel="1">
+      <c r="A57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:4" outlineLevel="1">
+      <c r="A58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D58" s="1" t="s">
+    </row>
+    <row r="59" spans="1:4" outlineLevel="1">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:4" outlineLevel="1">
+      <c r="A60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" outlineLevel="1">
       <c r="A61" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" outlineLevel="1">
+      <c r="A62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D62" s="1" t="s">
+    </row>
+    <row r="63" spans="1:4" outlineLevel="1">
+      <c r="A63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D63" s="1" t="s">
+    </row>
+    <row r="64" spans="1:4" outlineLevel="1">
+      <c r="A64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:4" outlineLevel="1">
+      <c r="A65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D65" s="1" t="s">
+    </row>
+    <row r="66" spans="1:4" outlineLevel="1">
+      <c r="A66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" outlineLevel="1">
+      <c r="A67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D67" s="1" t="s">
+    </row>
+    <row r="68" spans="1:4" outlineLevel="1">
+      <c r="A68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" outlineLevel="1">
       <c r="A69" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" outlineLevel="1">
+      <c r="A70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D70" s="1" t="s">
+    </row>
+    <row r="71" spans="1:4" outlineLevel="1">
+      <c r="A71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D71" s="1" t="s">
+    </row>
+    <row r="72" spans="1:4" outlineLevel="1">
+      <c r="A72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D72" s="1" t="s">
+    </row>
+    <row r="73" spans="1:4" outlineLevel="1">
+      <c r="A73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D73" s="1" t="s">
+    </row>
+    <row r="74" spans="1:4" outlineLevel="1">
+      <c r="A74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" outlineLevel="1">
       <c r="A75" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" outlineLevel="1">
+      <c r="A76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D76" s="1" t="s">
+    </row>
+    <row r="77" spans="1:4" outlineLevel="1">
+      <c r="A77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D77" s="1" t="s">
+    </row>
+    <row r="78" spans="1:4" outlineLevel="1">
+      <c r="A78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D78" s="1" t="s">
+    </row>
+    <row r="79" spans="1:4" outlineLevel="1">
+      <c r="A79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D79" s="1" t="s">
+    </row>
+    <row r="80" spans="1:4" outlineLevel="1">
+      <c r="A80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D80" s="1" t="s">
+    </row>
+    <row r="81" spans="1:4" outlineLevel="1">
+      <c r="A81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D81" s="1" t="s">
+    </row>
+    <row r="82" spans="1:4" outlineLevel="1">
+      <c r="A82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D82" s="1" t="s">
+    </row>
+    <row r="83" spans="1:4" outlineLevel="1">
+      <c r="A83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" outlineLevel="1">
       <c r="A84" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="1:4" outlineLevel="1">
+      <c r="A85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D85" s="1" t="s">
+    </row>
+    <row r="86" spans="1:4" outlineLevel="1">
+      <c r="A86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C86" s="1" t="s">
+    </row>
+    <row r="87" spans="1:4" outlineLevel="1">
+      <c r="A87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C87" s="1" t="s">
+    </row>
+    <row r="88" spans="1:4" outlineLevel="1">
+      <c r="A88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>932</v>
-      </c>
       <c r="C88" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" outlineLevel="1">
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
@@ -4576,7 +4625,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" outlineLevel="1">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
@@ -4587,7 +4636,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" outlineLevel="1">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
@@ -4598,7 +4647,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" outlineLevel="1">
       <c r="A92" s="1" t="s">
         <v>11</v>
       </c>
@@ -4612,7 +4661,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" outlineLevel="1">
       <c r="A93" s="8" t="s">
         <v>8</v>
       </c>
@@ -4624,7 +4673,7 @@
       </c>
       <c r="D93" s="8"/>
     </row>
-    <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" outlineLevel="1">
       <c r="A94" s="1" t="s">
         <v>11</v>
       </c>
@@ -4638,7 +4687,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" outlineLevel="1">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -4649,7 +4698,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" outlineLevel="1">
       <c r="A96" s="1" t="s">
         <v>11</v>
       </c>
@@ -4663,7 +4712,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" outlineLevel="1">
       <c r="A97" s="1" t="s">
         <v>11</v>
       </c>
@@ -4674,7 +4723,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" outlineLevel="1">
       <c r="A98" s="8" t="s">
         <v>8</v>
       </c>
@@ -4686,7 +4735,7 @@
       </c>
       <c r="D98" s="8"/>
     </row>
-    <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" outlineLevel="1">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -4700,7 +4749,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" outlineLevel="1">
       <c r="A100" s="1" t="s">
         <v>11</v>
       </c>
@@ -4714,7 +4763,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="101" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" outlineLevel="1">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -4728,7 +4777,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="102" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" outlineLevel="1">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -4742,7 +4791,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="103" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" outlineLevel="1">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -4756,7 +4805,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" outlineLevel="1">
       <c r="A104" s="1" t="s">
         <v>11</v>
       </c>
@@ -4770,7 +4819,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="105" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" outlineLevel="1">
       <c r="A105" s="1" t="s">
         <v>11</v>
       </c>
@@ -4784,7 +4833,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" outlineLevel="1">
       <c r="A106" s="8" t="s">
         <v>8</v>
       </c>
@@ -4796,7 +4845,7 @@
       </c>
       <c r="D106" s="8"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="12" t="s">
         <v>4</v>
       </c>
@@ -4810,7 +4859,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="108" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" outlineLevel="1">
       <c r="A108" s="8" t="s">
         <v>8</v>
       </c>
@@ -4822,7 +4871,7 @@
       </c>
       <c r="D108" s="8"/>
     </row>
-    <row r="109" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" outlineLevel="1">
       <c r="A109" s="1" t="s">
         <v>11</v>
       </c>
@@ -4836,7 +4885,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="110" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" outlineLevel="1">
       <c r="A110" s="1" t="s">
         <v>11</v>
       </c>
@@ -4850,7 +4899,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="111" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" outlineLevel="1">
       <c r="A111" s="1" t="s">
         <v>11</v>
       </c>
@@ -4864,7 +4913,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="112" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" outlineLevel="1">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -4878,7 +4927,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="113" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" outlineLevel="1">
       <c r="A113" s="1" t="s">
         <v>11</v>
       </c>
@@ -4892,7 +4941,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="114" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" outlineLevel="1">
       <c r="A114" s="1" t="s">
         <v>11</v>
       </c>
@@ -4903,7 +4952,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="115" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" outlineLevel="1">
       <c r="A115" s="8" t="s">
         <v>8</v>
       </c>
@@ -4915,7 +4964,7 @@
       </c>
       <c r="D115" s="8"/>
     </row>
-    <row r="116" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" outlineLevel="1">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -4926,7 +4975,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="117" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" outlineLevel="1">
       <c r="A117" s="1" t="s">
         <v>11</v>
       </c>
@@ -4937,7 +4986,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="118" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" outlineLevel="1">
       <c r="A118" s="1" t="s">
         <v>11</v>
       </c>
@@ -4951,7 +5000,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="119" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" outlineLevel="1">
       <c r="A119" s="1" t="s">
         <v>11</v>
       </c>
@@ -4965,7 +5014,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" outlineLevel="1">
       <c r="A120" s="1" t="s">
         <v>11</v>
       </c>
@@ -4979,7 +5028,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="121" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" outlineLevel="1">
       <c r="A121" s="1" t="s">
         <v>11</v>
       </c>
@@ -4990,7 +5039,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" outlineLevel="1">
       <c r="A122" s="1" t="s">
         <v>11</v>
       </c>
@@ -5004,7 +5053,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="123" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" outlineLevel="1">
       <c r="A123" s="1" t="s">
         <v>11</v>
       </c>
@@ -5018,7 +5067,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="124" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" outlineLevel="1">
       <c r="A124" s="8" t="s">
         <v>8</v>
       </c>
@@ -5030,7 +5079,7 @@
       </c>
       <c r="D124" s="8"/>
     </row>
-    <row r="125" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" outlineLevel="1">
       <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
@@ -5041,7 +5090,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="126" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" outlineLevel="1">
       <c r="A126" s="1" t="s">
         <v>11</v>
       </c>
@@ -5052,7 +5101,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="127" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" outlineLevel="1">
       <c r="A127" s="1" t="s">
         <v>11</v>
       </c>
@@ -5066,7 +5115,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="128" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" outlineLevel="1">
       <c r="A128" s="1" t="s">
         <v>11</v>
       </c>
@@ -5080,7 +5129,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="129" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" outlineLevel="1">
       <c r="A129" s="1" t="s">
         <v>11</v>
       </c>
@@ -5094,7 +5143,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="130" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" outlineLevel="1">
       <c r="A130" s="1" t="s">
         <v>11</v>
       </c>
@@ -5105,7 +5154,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="131" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" outlineLevel="1">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -5119,7 +5168,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="132" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" outlineLevel="1">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -5133,7 +5182,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="133" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" outlineLevel="1">
       <c r="A133" s="1" t="s">
         <v>11</v>
       </c>
@@ -5147,7 +5196,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="134" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" outlineLevel="1">
       <c r="A134" s="8" t="s">
         <v>8</v>
       </c>
@@ -5159,7 +5208,7 @@
       </c>
       <c r="D134" s="8"/>
     </row>
-    <row r="135" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" outlineLevel="1">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -5173,7 +5222,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="136" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" outlineLevel="1">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -5187,7 +5236,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="137" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" outlineLevel="1">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -5201,7 +5250,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="138" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" outlineLevel="1">
       <c r="A138" s="1" t="s">
         <v>11</v>
       </c>
@@ -5215,7 +5264,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="139" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" outlineLevel="1">
       <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
@@ -5223,11 +5272,11 @@
         <v>351</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" outlineLevel="1">
       <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
@@ -5235,11 +5284,11 @@
         <v>352</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" outlineLevel="1">
       <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
@@ -5250,7 +5299,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="142" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" outlineLevel="1">
       <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
@@ -5264,7 +5313,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="143" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" outlineLevel="1">
       <c r="A143" s="1" t="s">
         <v>11</v>
       </c>
@@ -5278,7 +5327,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="144" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" outlineLevel="1">
       <c r="A144" s="8" t="s">
         <v>8</v>
       </c>
@@ -5290,7 +5339,7 @@
       </c>
       <c r="D144" s="8"/>
     </row>
-    <row r="145" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" outlineLevel="1">
       <c r="A145" s="1" t="s">
         <v>11</v>
       </c>
@@ -5301,7 +5350,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="146" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" outlineLevel="1">
       <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
@@ -5309,11 +5358,11 @@
         <v>364</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" outlineLevel="1">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
@@ -5321,10 +5370,10 @@
         <v>365</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" outlineLevel="1">
       <c r="A148" s="1" t="s">
         <v>11</v>
       </c>
@@ -5335,7 +5384,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="149" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" outlineLevel="1">
       <c r="A149" s="8" t="s">
         <v>8</v>
       </c>
@@ -5347,7 +5396,7 @@
       </c>
       <c r="D149" s="8"/>
     </row>
-    <row r="150" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" outlineLevel="1">
       <c r="A150" s="1" t="s">
         <v>11</v>
       </c>
@@ -5361,7 +5410,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="151" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" outlineLevel="1">
       <c r="A151" s="1" t="s">
         <v>11</v>
       </c>
@@ -5375,7 +5424,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="152" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" outlineLevel="1">
       <c r="A152" s="1" t="s">
         <v>11</v>
       </c>
@@ -5389,7 +5438,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="153" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" outlineLevel="1">
       <c r="A153" s="1" t="s">
         <v>11</v>
       </c>
@@ -5403,7 +5452,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="154" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" outlineLevel="1">
       <c r="A154" s="1" t="s">
         <v>11</v>
       </c>
@@ -5417,7 +5466,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="155" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" outlineLevel="1">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -5431,7 +5480,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="156" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" outlineLevel="1">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -5439,11 +5488,11 @@
         <v>388</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" outlineLevel="1">
       <c r="A157" s="1" t="s">
         <v>11</v>
       </c>
@@ -5457,7 +5506,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="158" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" outlineLevel="1">
       <c r="A158" s="8" t="s">
         <v>8</v>
       </c>
@@ -5469,7 +5518,7 @@
       </c>
       <c r="D158" s="8"/>
     </row>
-    <row r="159" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" outlineLevel="1">
       <c r="A159" s="1" t="s">
         <v>11</v>
       </c>
@@ -5480,7 +5529,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="160" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" outlineLevel="1">
       <c r="A160" s="1" t="s">
         <v>11</v>
       </c>
@@ -5491,7 +5540,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="161" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" outlineLevel="1">
       <c r="A161" s="8" t="s">
         <v>8</v>
       </c>
@@ -5503,7 +5552,7 @@
       </c>
       <c r="D161" s="8"/>
     </row>
-    <row r="162" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" outlineLevel="1">
       <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
@@ -5517,7 +5566,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="163" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" outlineLevel="1">
       <c r="A163" s="1" t="s">
         <v>11</v>
       </c>
@@ -5531,7 +5580,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="164" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" outlineLevel="1">
       <c r="A164" s="1" t="s">
         <v>11</v>
       </c>
@@ -5545,7 +5594,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="165" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" outlineLevel="1">
       <c r="A165" s="1" t="s">
         <v>11</v>
       </c>
@@ -5559,7 +5608,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="166" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" outlineLevel="1">
       <c r="A166" s="1" t="s">
         <v>11</v>
       </c>
@@ -5567,11 +5616,11 @@
         <v>412</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" outlineLevel="1">
       <c r="A167" s="1" t="s">
         <v>11</v>
       </c>
@@ -5585,7 +5634,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="168" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" outlineLevel="1">
       <c r="A168" s="1" t="s">
         <v>11</v>
       </c>
@@ -5599,7 +5648,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="169" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" outlineLevel="1">
       <c r="A169" s="1" t="s">
         <v>11</v>
       </c>
@@ -5610,7 +5659,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="170" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" outlineLevel="1">
       <c r="A170" s="8" t="s">
         <v>8</v>
       </c>
@@ -5622,7 +5671,7 @@
       </c>
       <c r="D170" s="8"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" s="13" t="s">
         <v>4</v>
       </c>
@@ -5636,7 +5685,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="172" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" outlineLevel="1">
       <c r="A172" s="8" t="s">
         <v>8</v>
       </c>
@@ -5648,7 +5697,7 @@
       </c>
       <c r="D172" s="8"/>
     </row>
-    <row r="173" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" outlineLevel="1">
       <c r="A173" s="1" t="s">
         <v>11</v>
       </c>
@@ -5662,7 +5711,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="174" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" outlineLevel="1">
       <c r="A174" s="1" t="s">
         <v>11</v>
       </c>
@@ -5676,7 +5725,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="175" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" outlineLevel="1">
       <c r="A175" s="1" t="s">
         <v>11</v>
       </c>
@@ -5690,7 +5739,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="176" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" outlineLevel="1">
       <c r="A176" s="1" t="s">
         <v>11</v>
       </c>
@@ -5704,7 +5753,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="177" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" outlineLevel="1">
       <c r="A177" s="1" t="s">
         <v>11</v>
       </c>
@@ -5718,7 +5767,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="178" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" outlineLevel="1">
       <c r="A178" s="1" t="s">
         <v>11</v>
       </c>
@@ -5732,7 +5781,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="179" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" outlineLevel="1">
       <c r="A179" s="1" t="s">
         <v>11</v>
       </c>
@@ -5746,7 +5795,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="180" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" outlineLevel="1">
       <c r="A180" s="1" t="s">
         <v>11</v>
       </c>
@@ -5760,7 +5809,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="181" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" outlineLevel="1">
       <c r="A181" s="8" t="s">
         <v>8</v>
       </c>
@@ -5772,7 +5821,7 @@
       </c>
       <c r="D181" s="8"/>
     </row>
-    <row r="182" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" outlineLevel="1">
       <c r="A182" s="1" t="s">
         <v>11</v>
       </c>
@@ -5780,11 +5829,11 @@
         <v>454</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" outlineLevel="1">
       <c r="A183" s="1" t="s">
         <v>11</v>
       </c>
@@ -5798,7 +5847,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="184" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" outlineLevel="1">
       <c r="A184" s="1" t="s">
         <v>11</v>
       </c>
@@ -5812,7 +5861,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="185" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" outlineLevel="1">
       <c r="A185" s="1" t="s">
         <v>11</v>
       </c>
@@ -5826,7 +5875,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="186" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" outlineLevel="1">
       <c r="A186" s="8" t="s">
         <v>8</v>
       </c>
@@ -5838,7 +5887,7 @@
       </c>
       <c r="D186" s="8"/>
     </row>
-    <row r="187" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" outlineLevel="1">
       <c r="A187" s="1" t="s">
         <v>11</v>
       </c>
@@ -5846,11 +5895,11 @@
         <v>466</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" outlineLevel="1">
       <c r="A188" s="1" t="s">
         <v>11</v>
       </c>
@@ -5864,7 +5913,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="189" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" outlineLevel="1">
       <c r="A189" s="1" t="s">
         <v>11</v>
       </c>
@@ -5878,7 +5927,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="190" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" outlineLevel="1">
       <c r="A190" s="1" t="s">
         <v>11</v>
       </c>
@@ -5892,7 +5941,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="191" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" outlineLevel="1">
       <c r="A191" s="8" t="s">
         <v>8</v>
       </c>
@@ -5904,7 +5953,7 @@
       </c>
       <c r="D191" s="8"/>
     </row>
-    <row r="192" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" outlineLevel="1">
       <c r="A192" s="1" t="s">
         <v>11</v>
       </c>
@@ -5912,11 +5961,11 @@
         <v>475</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" outlineLevel="1">
       <c r="A193" s="1" t="s">
         <v>11</v>
       </c>
@@ -5930,7 +5979,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="194" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" outlineLevel="1">
       <c r="A194" s="1" t="s">
         <v>11</v>
       </c>
@@ -5944,7 +5993,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="195" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" outlineLevel="1">
       <c r="A195" s="1" t="s">
         <v>11</v>
       </c>
@@ -5958,7 +6007,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="196" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" outlineLevel="1">
       <c r="A196" s="8" t="s">
         <v>8</v>
       </c>
@@ -5970,7 +6019,7 @@
       </c>
       <c r="D196" s="8"/>
     </row>
-    <row r="197" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" outlineLevel="1">
       <c r="A197" s="1" t="s">
         <v>11</v>
       </c>
@@ -5978,11 +6027,11 @@
         <v>485</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" outlineLevel="1">
       <c r="A198" s="1" t="s">
         <v>11</v>
       </c>
@@ -5996,7 +6045,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="199" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" outlineLevel="1">
       <c r="A199" s="1" t="s">
         <v>11</v>
       </c>
@@ -6010,7 +6059,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="200" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" outlineLevel="1">
       <c r="A200" s="1" t="s">
         <v>11</v>
       </c>
@@ -6024,7 +6073,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="201" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" outlineLevel="1">
       <c r="A201" s="8" t="s">
         <v>8</v>
       </c>
@@ -6036,7 +6085,7 @@
       </c>
       <c r="D201" s="8"/>
     </row>
-    <row r="202" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" outlineLevel="1">
       <c r="A202" s="1" t="s">
         <v>11</v>
       </c>
@@ -6044,11 +6093,11 @@
         <v>495</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" outlineLevel="1">
       <c r="A203" s="1" t="s">
         <v>11</v>
       </c>
@@ -6062,7 +6111,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="204" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" outlineLevel="1">
       <c r="A204" s="1" t="s">
         <v>11</v>
       </c>
@@ -6076,7 +6125,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="205" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" outlineLevel="1">
       <c r="A205" s="1" t="s">
         <v>11</v>
       </c>
@@ -6090,7 +6139,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="206" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" outlineLevel="1">
       <c r="A206" s="8" t="s">
         <v>8</v>
       </c>
@@ -6102,7 +6151,7 @@
       </c>
       <c r="D206" s="8"/>
     </row>
-    <row r="207" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" outlineLevel="1">
       <c r="A207" s="1" t="s">
         <v>11</v>
       </c>
@@ -6110,11 +6159,11 @@
         <v>504</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" outlineLevel="1">
       <c r="A208" s="1" t="s">
         <v>11</v>
       </c>
@@ -6128,7 +6177,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="209" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" outlineLevel="1">
       <c r="A209" s="1" t="s">
         <v>11</v>
       </c>
@@ -6142,7 +6191,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="210" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" outlineLevel="1">
       <c r="A210" s="1" t="s">
         <v>11</v>
       </c>
@@ -6156,7 +6205,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="211" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" outlineLevel="1">
       <c r="A211" s="8" t="s">
         <v>8</v>
       </c>
@@ -6168,7 +6217,7 @@
       </c>
       <c r="D211" s="8"/>
     </row>
-    <row r="212" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" outlineLevel="1">
       <c r="A212" s="1" t="s">
         <v>11</v>
       </c>
@@ -6176,11 +6225,11 @@
         <v>513</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" outlineLevel="1">
       <c r="A213" s="1" t="s">
         <v>11</v>
       </c>
@@ -6194,7 +6243,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="214" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" outlineLevel="1">
       <c r="A214" s="1" t="s">
         <v>11</v>
       </c>
@@ -6208,7 +6257,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="215" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" outlineLevel="1">
       <c r="A215" s="8" t="s">
         <v>8</v>
       </c>
@@ -6220,7 +6269,7 @@
       </c>
       <c r="D215" s="8"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4">
       <c r="A216" s="14" t="s">
         <v>4</v>
       </c>
@@ -6234,7 +6283,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="217" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" outlineLevel="1">
       <c r="A217" s="8" t="s">
         <v>8</v>
       </c>
@@ -6246,7 +6295,7 @@
       </c>
       <c r="D217" s="8"/>
     </row>
-    <row r="218" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" outlineLevel="1">
       <c r="A218" s="1" t="s">
         <v>11</v>
       </c>
@@ -6257,7 +6306,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="219" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" outlineLevel="1">
       <c r="A219" s="1" t="s">
         <v>11</v>
       </c>
@@ -6268,7 +6317,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="220" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" outlineLevel="1">
       <c r="A220" s="1" t="s">
         <v>11</v>
       </c>
@@ -6279,7 +6328,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="221" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" outlineLevel="1">
       <c r="A221" s="1" t="s">
         <v>11</v>
       </c>
@@ -6290,7 +6339,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="222" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" outlineLevel="1">
       <c r="A222" s="1" t="s">
         <v>11</v>
       </c>
@@ -6301,7 +6350,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="223" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" outlineLevel="1">
       <c r="A223" s="1" t="s">
         <v>11</v>
       </c>
@@ -6312,7 +6361,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="224" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" outlineLevel="1">
       <c r="A224" s="1" t="s">
         <v>11</v>
       </c>
@@ -6323,7 +6372,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="225" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" outlineLevel="1">
       <c r="A225" s="1" t="s">
         <v>11</v>
       </c>
@@ -6334,7 +6383,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="226" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" outlineLevel="1">
       <c r="A226" s="1" t="s">
         <v>11</v>
       </c>
@@ -6345,7 +6394,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="227" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" outlineLevel="1">
       <c r="A227" s="8" t="s">
         <v>8</v>
       </c>
@@ -6357,7 +6406,7 @@
       </c>
       <c r="D227" s="8"/>
     </row>
-    <row r="228" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" outlineLevel="1">
       <c r="A228" s="1" t="s">
         <v>11</v>
       </c>
@@ -6368,7 +6417,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="229" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" outlineLevel="1">
       <c r="A229" s="1" t="s">
         <v>11</v>
       </c>
@@ -6379,7 +6428,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="230" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" outlineLevel="1">
       <c r="A230" s="8" t="s">
         <v>8</v>
       </c>
@@ -6391,7 +6440,7 @@
       </c>
       <c r="D230" s="8"/>
     </row>
-    <row r="231" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" outlineLevel="1">
       <c r="A231" s="1" t="s">
         <v>11</v>
       </c>
@@ -6402,7 +6451,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="232" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" outlineLevel="1">
       <c r="A232" s="1" t="s">
         <v>11</v>
       </c>
@@ -6413,7 +6462,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="233" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" outlineLevel="1">
       <c r="A233" s="1" t="s">
         <v>11</v>
       </c>
@@ -6424,7 +6473,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="234" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" outlineLevel="1">
       <c r="A234" s="1" t="s">
         <v>11</v>
       </c>
@@ -6435,7 +6484,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="235" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" outlineLevel="1">
       <c r="A235" s="1" t="s">
         <v>11</v>
       </c>
@@ -6446,7 +6495,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="236" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" outlineLevel="1">
       <c r="A236" s="1" t="s">
         <v>11</v>
       </c>
@@ -6457,7 +6506,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="237" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" outlineLevel="1">
       <c r="A237" s="1" t="s">
         <v>11</v>
       </c>
@@ -6468,7 +6517,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="238" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" outlineLevel="1">
       <c r="A238" s="1" t="s">
         <v>11</v>
       </c>
@@ -6479,7 +6528,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="239" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" outlineLevel="1">
       <c r="A239" s="1" t="s">
         <v>11</v>
       </c>
@@ -6490,7 +6539,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="240" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" outlineLevel="1">
       <c r="A240" s="8" t="s">
         <v>8</v>
       </c>
@@ -6502,7 +6551,7 @@
       </c>
       <c r="D240" s="8"/>
     </row>
-    <row r="241" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" outlineLevel="1">
       <c r="A241" s="1" t="s">
         <v>11</v>
       </c>
@@ -6513,7 +6562,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="242" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" outlineLevel="1">
       <c r="A242" s="1" t="s">
         <v>11</v>
       </c>
@@ -6524,7 +6573,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="243" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" outlineLevel="1">
       <c r="A243" s="1" t="s">
         <v>11</v>
       </c>
@@ -6535,7 +6584,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="244" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" outlineLevel="1">
       <c r="A244" s="1" t="s">
         <v>11</v>
       </c>
@@ -6546,7 +6595,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="245" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" outlineLevel="1">
       <c r="A245" s="1" t="s">
         <v>11</v>
       </c>
@@ -6557,7 +6606,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="246" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" outlineLevel="1">
       <c r="A246" s="1" t="s">
         <v>11</v>
       </c>
@@ -6568,7 +6617,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="247" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" outlineLevel="1">
       <c r="A247" s="1" t="s">
         <v>11</v>
       </c>
@@ -6579,7 +6628,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="248" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" outlineLevel="1">
       <c r="A248" s="8" t="s">
         <v>8</v>
       </c>
@@ -6591,7 +6640,7 @@
       </c>
       <c r="D248" s="8"/>
     </row>
-    <row r="249" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" outlineLevel="1">
       <c r="A249" s="1" t="s">
         <v>11</v>
       </c>
@@ -6602,7 +6651,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="250" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" outlineLevel="1">
       <c r="A250" s="1" t="s">
         <v>11</v>
       </c>
@@ -6613,7 +6662,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="251" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" outlineLevel="1">
       <c r="A251" s="1" t="s">
         <v>11</v>
       </c>
@@ -6624,7 +6673,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="252" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" outlineLevel="1">
       <c r="A252" s="1" t="s">
         <v>11</v>
       </c>
@@ -6635,7 +6684,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="253" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" outlineLevel="1">
       <c r="A253" s="1" t="s">
         <v>11</v>
       </c>
@@ -6646,7 +6695,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="254" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" outlineLevel="1">
       <c r="A254" s="1" t="s">
         <v>11</v>
       </c>
@@ -6657,7 +6706,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="255" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" outlineLevel="1">
       <c r="A255" s="8" t="s">
         <v>8</v>
       </c>
@@ -6669,7 +6718,7 @@
       </c>
       <c r="D255" s="8"/>
     </row>
-    <row r="256" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" outlineLevel="1">
       <c r="A256" s="1" t="s">
         <v>11</v>
       </c>
@@ -6680,7 +6729,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="257" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" outlineLevel="1">
       <c r="A257" s="1" t="s">
         <v>11</v>
       </c>
@@ -6691,7 +6740,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="258" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" outlineLevel="1">
       <c r="A258" s="1" t="s">
         <v>11</v>
       </c>
@@ -6702,7 +6751,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="259" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" outlineLevel="1">
       <c r="A259" s="1" t="s">
         <v>11</v>
       </c>
@@ -6713,7 +6762,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="260" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" outlineLevel="1">
       <c r="A260" s="1" t="s">
         <v>11</v>
       </c>
@@ -6724,7 +6773,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="261" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" outlineLevel="1">
       <c r="A261" s="8" t="s">
         <v>8</v>
       </c>
@@ -6736,7 +6785,7 @@
       </c>
       <c r="D261" s="8"/>
     </row>
-    <row r="262" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" outlineLevel="1">
       <c r="A262" s="1" t="s">
         <v>11</v>
       </c>
@@ -6747,7 +6796,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="263" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" outlineLevel="1">
       <c r="A263" s="1" t="s">
         <v>11</v>
       </c>
@@ -6758,7 +6807,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="264" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" outlineLevel="1">
       <c r="A264" s="1" t="s">
         <v>11</v>
       </c>
@@ -6769,7 +6818,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="265" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" outlineLevel="1">
       <c r="A265" s="1" t="s">
         <v>11</v>
       </c>
@@ -6780,7 +6829,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="266" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" outlineLevel="1">
       <c r="A266" s="1" t="s">
         <v>11</v>
       </c>
@@ -6791,7 +6840,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="267" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" outlineLevel="1">
       <c r="A267" s="8" t="s">
         <v>8</v>
       </c>
@@ -6803,7 +6852,7 @@
       </c>
       <c r="D267" s="8"/>
     </row>
-    <row r="268" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" outlineLevel="1">
       <c r="A268" s="1" t="s">
         <v>11</v>
       </c>
@@ -6814,7 +6863,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="269" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" outlineLevel="1">
       <c r="A269" s="1" t="s">
         <v>11</v>
       </c>
@@ -6825,7 +6874,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="270" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" outlineLevel="1">
       <c r="A270" s="1" t="s">
         <v>11</v>
       </c>
@@ -6836,7 +6885,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="271" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" outlineLevel="1">
       <c r="A271" s="1" t="s">
         <v>11</v>
       </c>
@@ -6847,7 +6896,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="272" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" outlineLevel="1">
       <c r="A272" s="1" t="s">
         <v>11</v>
       </c>
@@ -6858,7 +6907,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="273" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" outlineLevel="1">
       <c r="A273" s="1" t="s">
         <v>11</v>
       </c>
@@ -6869,7 +6918,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="274" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" outlineLevel="1">
       <c r="A274" s="1" t="s">
         <v>11</v>
       </c>
@@ -6880,7 +6929,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="275" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" outlineLevel="1">
       <c r="A275" s="1" t="s">
         <v>11</v>
       </c>
@@ -6891,7 +6940,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="276" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" outlineLevel="1">
       <c r="A276" s="1" t="s">
         <v>11</v>
       </c>
@@ -6902,7 +6951,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="277" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" outlineLevel="1">
       <c r="A277" s="8" t="s">
         <v>8</v>
       </c>
@@ -6914,7 +6963,7 @@
       </c>
       <c r="D277" s="8"/>
     </row>
-    <row r="278" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" outlineLevel="1">
       <c r="A278" s="1" t="s">
         <v>11</v>
       </c>
@@ -6925,7 +6974,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="279" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" outlineLevel="1">
       <c r="A279" s="1" t="s">
         <v>11</v>
       </c>
@@ -6936,7 +6985,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="280" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" outlineLevel="1">
       <c r="A280" s="1" t="s">
         <v>11</v>
       </c>
@@ -6947,7 +6996,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="281" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" outlineLevel="1">
       <c r="A281" s="1" t="s">
         <v>11</v>
       </c>
@@ -6958,7 +7007,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="282" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" outlineLevel="1">
       <c r="A282" s="8" t="s">
         <v>8</v>
       </c>
@@ -6970,7 +7019,7 @@
       </c>
       <c r="D282" s="8"/>
     </row>
-    <row r="283" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" outlineLevel="1">
       <c r="A283" s="1" t="s">
         <v>11</v>
       </c>
@@ -6981,7 +7030,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="284" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" outlineLevel="1">
       <c r="A284" s="1" t="s">
         <v>11</v>
       </c>
@@ -6992,7 +7041,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="285" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" outlineLevel="1">
       <c r="A285" s="1" t="s">
         <v>11</v>
       </c>
@@ -7003,7 +7052,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="286" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" outlineLevel="1">
       <c r="A286" s="1" t="s">
         <v>11</v>
       </c>
@@ -7014,7 +7063,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="287" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" outlineLevel="1">
       <c r="A287" s="1" t="s">
         <v>11</v>
       </c>
@@ -7025,7 +7074,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="288" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" outlineLevel="1">
       <c r="A288" s="1" t="s">
         <v>11</v>
       </c>
@@ -7036,7 +7085,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="289" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" outlineLevel="1">
       <c r="A289" s="1" t="s">
         <v>11</v>
       </c>
@@ -7047,7 +7096,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="290" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" outlineLevel="1">
       <c r="A290" s="1" t="s">
         <v>11</v>
       </c>
@@ -7058,7 +7107,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="291" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" outlineLevel="1">
       <c r="A291" s="1" t="s">
         <v>11</v>
       </c>
@@ -7069,7 +7118,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4">
       <c r="A292" s="15" t="s">
         <v>4</v>
       </c>
@@ -7083,7 +7132,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="293" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" outlineLevel="1">
       <c r="A293" s="8" t="s">
         <v>8</v>
       </c>
@@ -7095,7 +7144,7 @@
       </c>
       <c r="D293" s="8"/>
     </row>
-    <row r="294" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" outlineLevel="1">
       <c r="A294" s="1" t="s">
         <v>11</v>
       </c>
@@ -7106,7 +7155,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="295" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" outlineLevel="1">
       <c r="A295" s="1" t="s">
         <v>11</v>
       </c>
@@ -7117,7 +7166,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="296" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" outlineLevel="1">
       <c r="A296" s="1" t="s">
         <v>11</v>
       </c>
@@ -7128,7 +7177,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="297" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" outlineLevel="1">
       <c r="A297" s="1" t="s">
         <v>11</v>
       </c>
@@ -7139,7 +7188,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="298" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" outlineLevel="1">
       <c r="A298" s="1" t="s">
         <v>11</v>
       </c>
@@ -7150,7 +7199,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="299" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" outlineLevel="1">
       <c r="A299" s="1" t="s">
         <v>11</v>
       </c>
@@ -7161,7 +7210,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="300" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" outlineLevel="1">
       <c r="A300" s="1" t="s">
         <v>11</v>
       </c>
@@ -7172,7 +7221,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="301" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" outlineLevel="1">
       <c r="A301" s="8" t="s">
         <v>8</v>
       </c>
@@ -7184,7 +7233,7 @@
       </c>
       <c r="D301" s="8"/>
     </row>
-    <row r="302" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" outlineLevel="1">
       <c r="A302" s="1" t="s">
         <v>11</v>
       </c>
@@ -7195,7 +7244,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="303" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" outlineLevel="1">
       <c r="A303" s="1" t="s">
         <v>11</v>
       </c>
@@ -7206,7 +7255,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="304" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" outlineLevel="1">
       <c r="A304" s="1" t="s">
         <v>11</v>
       </c>
@@ -7217,7 +7266,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="305" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" outlineLevel="1">
       <c r="A305" s="1" t="s">
         <v>11</v>
       </c>
@@ -7228,7 +7277,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="306" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" outlineLevel="1">
       <c r="A306" s="1" t="s">
         <v>11</v>
       </c>
@@ -7239,7 +7288,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="307" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" outlineLevel="1">
       <c r="A307" s="1" t="s">
         <v>11</v>
       </c>
@@ -7250,7 +7299,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="308" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" outlineLevel="1">
       <c r="A308" s="1" t="s">
         <v>11</v>
       </c>
@@ -7261,7 +7310,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="309" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" outlineLevel="1">
       <c r="A309" s="8" t="s">
         <v>8</v>
       </c>
@@ -7273,7 +7322,7 @@
       </c>
       <c r="D309" s="8"/>
     </row>
-    <row r="310" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" outlineLevel="1">
       <c r="A310" s="1" t="s">
         <v>11</v>
       </c>
@@ -7284,7 +7333,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="311" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" outlineLevel="1">
       <c r="A311" s="1" t="s">
         <v>11</v>
       </c>
@@ -7295,7 +7344,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="312" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" outlineLevel="1">
       <c r="A312" s="1" t="s">
         <v>11</v>
       </c>
@@ -7306,7 +7355,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="313" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" outlineLevel="1">
       <c r="A313" s="1" t="s">
         <v>11</v>
       </c>
@@ -7317,7 +7366,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="314" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" outlineLevel="1">
       <c r="A314" s="8" t="s">
         <v>8</v>
       </c>
@@ -7329,7 +7378,7 @@
       </c>
       <c r="D314" s="8"/>
     </row>
-    <row r="315" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" outlineLevel="1">
       <c r="A315" s="1" t="s">
         <v>11</v>
       </c>
@@ -7340,7 +7389,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="316" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" outlineLevel="1">
       <c r="A316" s="1" t="s">
         <v>11</v>
       </c>
@@ -7351,7 +7400,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="317" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" outlineLevel="1">
       <c r="A317" s="1" t="s">
         <v>11</v>
       </c>
@@ -7362,7 +7411,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="318" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" outlineLevel="1">
       <c r="A318" s="1" t="s">
         <v>11</v>
       </c>
@@ -7373,7 +7422,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="319" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" outlineLevel="1">
       <c r="A319" s="1" t="s">
         <v>11</v>
       </c>
@@ -7384,7 +7433,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="320" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" outlineLevel="1">
       <c r="A320" s="1" t="s">
         <v>11</v>
       </c>
@@ -7395,7 +7444,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="321" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" outlineLevel="1">
       <c r="A321" s="1" t="s">
         <v>11</v>
       </c>
@@ -7406,7 +7455,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="322" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" outlineLevel="1">
       <c r="A322" s="1" t="s">
         <v>11</v>
       </c>
@@ -7417,7 +7466,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="323" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" outlineLevel="1">
       <c r="A323" s="1" t="s">
         <v>11</v>
       </c>
@@ -7428,7 +7477,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="324" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" outlineLevel="1">
       <c r="A324" s="8" t="s">
         <v>8</v>
       </c>
@@ -7440,7 +7489,7 @@
       </c>
       <c r="D324" s="8"/>
     </row>
-    <row r="325" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" outlineLevel="1">
       <c r="A325" s="1" t="s">
         <v>11</v>
       </c>
@@ -7451,7 +7500,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="326" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" outlineLevel="1">
       <c r="A326" s="1" t="s">
         <v>11</v>
       </c>
@@ -7462,7 +7511,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="327" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" outlineLevel="1">
       <c r="A327" s="1" t="s">
         <v>11</v>
       </c>
@@ -7473,7 +7522,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="328" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" outlineLevel="1">
       <c r="A328" s="1" t="s">
         <v>11</v>
       </c>
@@ -7484,7 +7533,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="329" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" outlineLevel="1">
       <c r="A329" s="1" t="s">
         <v>11</v>
       </c>
@@ -7495,7 +7544,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="330" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" outlineLevel="1">
       <c r="A330" s="8" t="s">
         <v>8</v>
       </c>
@@ -7507,7 +7556,7 @@
       </c>
       <c r="D330" s="8"/>
     </row>
-    <row r="331" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" outlineLevel="1">
       <c r="A331" s="1" t="s">
         <v>11</v>
       </c>
@@ -7518,7 +7567,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="332" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" outlineLevel="1">
       <c r="A332" s="1" t="s">
         <v>11</v>
       </c>
@@ -7529,7 +7578,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="333" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" outlineLevel="1">
       <c r="A333" s="1" t="s">
         <v>11</v>
       </c>
@@ -7540,7 +7589,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="334" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" outlineLevel="1">
       <c r="A334" s="1" t="s">
         <v>11</v>
       </c>
@@ -7551,7 +7600,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="335" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" outlineLevel="1">
       <c r="A335" s="8" t="s">
         <v>8</v>
       </c>
@@ -7563,7 +7612,7 @@
       </c>
       <c r="D335" s="8"/>
     </row>
-    <row r="336" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" outlineLevel="1">
       <c r="A336" s="1" t="s">
         <v>11</v>
       </c>
@@ -7574,7 +7623,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="337" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" outlineLevel="1">
       <c r="A337" s="1" t="s">
         <v>11</v>
       </c>
@@ -7585,7 +7634,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="338" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" outlineLevel="1">
       <c r="A338" s="1" t="s">
         <v>11</v>
       </c>
@@ -7596,7 +7645,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="339" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" outlineLevel="1">
       <c r="A339" s="1" t="s">
         <v>11</v>
       </c>
@@ -7607,7 +7656,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="340" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" outlineLevel="1">
       <c r="A340" s="1" t="s">
         <v>11</v>
       </c>
@@ -7618,7 +7667,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="341" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" outlineLevel="1">
       <c r="A341" s="8" t="s">
         <v>8</v>
       </c>
@@ -7630,7 +7679,7 @@
       </c>
       <c r="D341" s="8"/>
     </row>
-    <row r="342" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" outlineLevel="1">
       <c r="A342" s="1" t="s">
         <v>11</v>
       </c>
@@ -7641,7 +7690,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="343" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" outlineLevel="1">
       <c r="A343" s="1" t="s">
         <v>11</v>
       </c>
@@ -7652,7 +7701,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="344" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" outlineLevel="1">
       <c r="A344" s="1" t="s">
         <v>11</v>
       </c>
@@ -7663,7 +7712,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="345" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" outlineLevel="1">
       <c r="A345" s="8" t="s">
         <v>8</v>
       </c>
@@ -7675,7 +7724,7 @@
       </c>
       <c r="D345" s="8"/>
     </row>
-    <row r="346" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" outlineLevel="1">
       <c r="A346" s="1" t="s">
         <v>11</v>
       </c>
@@ -7686,7 +7735,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="347" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" outlineLevel="1">
       <c r="A347" s="1" t="s">
         <v>11</v>
       </c>
@@ -7697,7 +7746,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="348" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" outlineLevel="1">
       <c r="A348" s="1" t="s">
         <v>11</v>
       </c>
@@ -7708,7 +7757,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="349" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" outlineLevel="1">
       <c r="A349" s="1" t="s">
         <v>11</v>
       </c>
@@ -7719,7 +7768,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="350" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" outlineLevel="1">
       <c r="A350" s="8" t="s">
         <v>8</v>
       </c>
@@ -7731,7 +7780,7 @@
       </c>
       <c r="D350" s="8"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4">
       <c r="A351" s="16" t="s">
         <v>4</v>
       </c>
@@ -7745,7 +7794,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="352" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" outlineLevel="1">
       <c r="A352" s="8" t="s">
         <v>8</v>
       </c>
@@ -7757,7 +7806,7 @@
       </c>
       <c r="D352" s="8"/>
     </row>
-    <row r="353" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" outlineLevel="1">
       <c r="A353" s="1" t="s">
         <v>11</v>
       </c>
@@ -7771,7 +7820,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="354" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" outlineLevel="1">
       <c r="A354" s="1" t="s">
         <v>11</v>
       </c>
@@ -7785,7 +7834,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="355" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" outlineLevel="1">
       <c r="A355" s="1" t="s">
         <v>11</v>
       </c>
@@ -7796,7 +7845,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="356" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" outlineLevel="1">
       <c r="A356" s="1" t="s">
         <v>11</v>
       </c>
@@ -7807,7 +7856,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="357" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" outlineLevel="1">
       <c r="A357" s="1" t="s">
         <v>11</v>
       </c>
@@ -7818,7 +7867,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="358" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" outlineLevel="1">
       <c r="A358" s="1" t="s">
         <v>11</v>
       </c>
@@ -7832,7 +7881,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="359" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" outlineLevel="1">
       <c r="A359" s="1" t="s">
         <v>11</v>
       </c>
@@ -7846,7 +7895,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="360" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" outlineLevel="1">
       <c r="A360" s="1" t="s">
         <v>11</v>
       </c>
@@ -7857,7 +7906,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="361" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" outlineLevel="1">
       <c r="A361" s="8" t="s">
         <v>8</v>
       </c>
@@ -7869,7 +7918,7 @@
       </c>
       <c r="D361" s="8"/>
     </row>
-    <row r="362" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" outlineLevel="1">
       <c r="A362" s="1" t="s">
         <v>11</v>
       </c>
@@ -7883,7 +7932,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="363" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" outlineLevel="1">
       <c r="A363" s="1" t="s">
         <v>11</v>
       </c>
@@ -7891,11 +7940,11 @@
         <v>814</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D363" s="5"/>
     </row>
-    <row r="364" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" outlineLevel="1">
       <c r="A364" s="1" t="s">
         <v>11</v>
       </c>
@@ -7906,7 +7955,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="365" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" outlineLevel="1">
       <c r="A365" s="1" t="s">
         <v>11</v>
       </c>
@@ -7920,7 +7969,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="366" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" outlineLevel="1">
       <c r="A366" s="1" t="s">
         <v>11</v>
       </c>
@@ -7931,7 +7980,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="367" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" outlineLevel="1">
       <c r="A367" s="1" t="s">
         <v>11</v>
       </c>
@@ -7945,7 +7994,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="368" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" outlineLevel="1">
       <c r="A368" s="1" t="s">
         <v>11</v>
       </c>
@@ -7959,7 +8008,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="369" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" outlineLevel="1">
       <c r="A369" s="1" t="s">
         <v>11</v>
       </c>
@@ -7970,7 +8019,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="370" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" outlineLevel="1">
       <c r="A370" s="8" t="s">
         <v>8</v>
       </c>
@@ -7982,7 +8031,7 @@
       </c>
       <c r="D370" s="8"/>
     </row>
-    <row r="371" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" outlineLevel="1">
       <c r="A371" s="1" t="s">
         <v>11</v>
       </c>
@@ -7993,7 +8042,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="372" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" outlineLevel="1">
       <c r="A372" s="1" t="s">
         <v>11</v>
       </c>
@@ -8001,11 +8050,11 @@
         <v>833</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D372" s="5"/>
     </row>
-    <row r="373" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" outlineLevel="1">
       <c r="A373" s="1" t="s">
         <v>11</v>
       </c>
@@ -8016,7 +8065,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="374" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" outlineLevel="1">
       <c r="A374" s="1" t="s">
         <v>11</v>
       </c>
@@ -8030,7 +8079,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="375" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" outlineLevel="1">
       <c r="A375" s="1" t="s">
         <v>11</v>
       </c>
@@ -8041,7 +8090,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="376" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" outlineLevel="1">
       <c r="A376" s="1" t="s">
         <v>11</v>
       </c>
@@ -8055,7 +8104,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="377" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" outlineLevel="1">
       <c r="A377" s="1" t="s">
         <v>11</v>
       </c>
@@ -8069,7 +8118,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="378" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" outlineLevel="1">
       <c r="A378" s="1" t="s">
         <v>11</v>
       </c>
@@ -8080,7 +8129,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="379" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" outlineLevel="1">
       <c r="A379" s="8" t="s">
         <v>8</v>
       </c>
@@ -8092,7 +8141,7 @@
       </c>
       <c r="D379" s="8"/>
     </row>
-    <row r="380" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" outlineLevel="1">
       <c r="A380" s="1" t="s">
         <v>11</v>
       </c>
@@ -8106,7 +8155,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="381" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" outlineLevel="1">
       <c r="A381" s="1" t="s">
         <v>11</v>
       </c>
@@ -8120,7 +8169,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="382" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" outlineLevel="1">
       <c r="A382" s="1" t="s">
         <v>11</v>
       </c>
@@ -8134,7 +8183,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="383" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" outlineLevel="1">
       <c r="A383" s="1" t="s">
         <v>11</v>
       </c>
@@ -8148,7 +8197,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="384" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" outlineLevel="1">
       <c r="A384" s="1" t="s">
         <v>11</v>
       </c>
@@ -8162,7 +8211,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="385" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" outlineLevel="1">
       <c r="A385" s="1" t="s">
         <v>11</v>
       </c>
@@ -8176,7 +8225,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="386" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" outlineLevel="1">
       <c r="A386" s="1" t="s">
         <v>11</v>
       </c>
@@ -8187,7 +8236,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="387" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" outlineLevel="1">
       <c r="A387" s="8" t="s">
         <v>8</v>
       </c>
@@ -8199,7 +8248,7 @@
       </c>
       <c r="D387" s="8"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4">
       <c r="A388" s="17" t="s">
         <v>4</v>
       </c>
@@ -8213,7 +8262,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="389" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" outlineLevel="1">
       <c r="A389" s="8" t="s">
         <v>8</v>
       </c>
@@ -8225,7 +8274,7 @@
       </c>
       <c r="D389" s="8"/>
     </row>
-    <row r="390" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" outlineLevel="1">
       <c r="A390" s="1" t="s">
         <v>11</v>
       </c>
@@ -8239,7 +8288,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="391" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" outlineLevel="1">
       <c r="A391" s="1" t="s">
         <v>11</v>
       </c>
@@ -8253,7 +8302,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="392" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" outlineLevel="1">
       <c r="A392" s="1" t="s">
         <v>11</v>
       </c>
@@ -8267,7 +8316,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="393" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" outlineLevel="1">
       <c r="A393" s="1" t="s">
         <v>11</v>
       </c>
@@ -8281,7 +8330,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="394" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" outlineLevel="1">
       <c r="A394" s="1" t="s">
         <v>11</v>
       </c>
@@ -8295,7 +8344,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="395" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" outlineLevel="1">
       <c r="A395" s="1" t="s">
         <v>11</v>
       </c>
@@ -8309,7 +8358,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="396" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" outlineLevel="1">
       <c r="A396" s="1" t="s">
         <v>11</v>
       </c>
@@ -8323,7 +8372,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="397" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" outlineLevel="1">
       <c r="A397" s="1" t="s">
         <v>11</v>
       </c>
@@ -8334,7 +8383,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="398" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" outlineLevel="1">
       <c r="A398" s="8" t="s">
         <v>8</v>
       </c>
@@ -8342,11 +8391,11 @@
         <v>898</v>
       </c>
       <c r="C398" s="9" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D398" s="10"/>
     </row>
-    <row r="399" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" outlineLevel="1">
       <c r="A399" s="8" t="s">
         <v>8</v>
       </c>
@@ -8358,7 +8407,7 @@
       </c>
       <c r="D399" s="8"/>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4">
       <c r="A400" s="18" t="s">
         <v>4</v>
       </c>
@@ -8372,7 +8421,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="401" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" outlineLevel="1">
       <c r="A401" s="8" t="s">
         <v>8</v>
       </c>
@@ -8386,7 +8435,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="402" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" outlineLevel="1">
       <c r="A402" s="1" t="s">
         <v>11</v>
       </c>
@@ -8397,7 +8446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" outlineLevel="1">
       <c r="A403" s="8" t="s">
         <v>8</v>
       </c>
@@ -8409,7 +8458,7 @@
       </c>
       <c r="D403" s="8"/>
     </row>
-    <row r="404" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" outlineLevel="1">
       <c r="A404" s="1" t="s">
         <v>11</v>
       </c>
@@ -8420,7 +8469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" outlineLevel="1">
       <c r="A405" s="8" t="s">
         <v>8</v>
       </c>
@@ -8434,7 +8483,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="406" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" outlineLevel="1">
       <c r="A406" s="1" t="s">
         <v>11</v>
       </c>
@@ -8445,7 +8494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" outlineLevel="1">
       <c r="A407" s="8" t="s">
         <v>8</v>
       </c>
@@ -8459,7 +8508,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="408" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" outlineLevel="1">
       <c r="A408" s="1" t="s">
         <v>11</v>
       </c>
@@ -8470,7 +8519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" outlineLevel="1">
       <c r="A409" s="8" t="s">
         <v>8</v>
       </c>
@@ -8484,7 +8533,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="410" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" outlineLevel="1">
       <c r="A410" s="1" t="s">
         <v>11</v>
       </c>
@@ -8495,7 +8544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" outlineLevel="1">
       <c r="A411" s="8" t="s">
         <v>8</v>
       </c>
@@ -8509,7 +8558,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="412" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" outlineLevel="1">
       <c r="A412" s="1" t="s">
         <v>11</v>
       </c>
@@ -8520,7 +8569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" outlineLevel="1">
       <c r="A413" s="8" t="s">
         <v>8</v>
       </c>
@@ -8532,7 +8581,7 @@
       </c>
       <c r="D413" s="8"/>
     </row>
-    <row r="414" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" outlineLevel="1">
       <c r="A414" s="1" t="s">
         <v>11</v>
       </c>
@@ -8543,7 +8592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" outlineLevel="1">
       <c r="A415" s="8" t="s">
         <v>8</v>
       </c>
@@ -8557,7 +8606,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="416" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" outlineLevel="1">
       <c r="A416" s="1" t="s">
         <v>11</v>
       </c>
@@ -8581,27 +8630,119 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="45a28cd4-7f0b-475c-a950-133468d4a055" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46FA738-343D-4AA5-B8CC-0F8BB3F70FDC}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="22" t="s">
+        <v>932</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="B2" s="26">
+        <v>44805</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>935</v>
+      </c>
+      <c r="B3" s="27">
+        <v>45089</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="27"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="27"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="27"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="27"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="27"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="27"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="27"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="27"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="27"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100309FAFF55864F54C915D256FC93189CF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe1e7545a2d0d55fa1e8750be1390eca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45a28cd4-7f0b-475c-a950-133468d4a055" xmlns:ns3="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d2010749b15634dfb9f9de390013312" ns2:_="" ns3:_="">
     <xsd:import namespace="45a28cd4-7f0b-475c-a950-133468d4a055"/>
@@ -8832,25 +8973,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="45a28cd4-7f0b-475c-a950-133468d4a055" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8F02963-6FEE-4541-B3EF-7DD55FECBFE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a"/>
-    <ds:schemaRef ds:uri="45a28cd4-7f0b-475c-a950-133468d4a055"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAF20CDE-BB8A-49EE-B078-C85F3FE67766}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04F896F3-9096-46B1-B980-C00FA359809A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8F02963-6FEE-4541-B3EF-7DD55FECBFE2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA7F6400-CF63-4E55-AAFD-EAA4B98BF410}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04F896F3-9096-46B1-B980-C00FA359809A}"/>
 </file>
--- a/dk/BIMTypeCode - Værdiliste - 2022DK.xlsx
+++ b/dk/BIMTypeCode - Værdiliste - 2022DK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuboarkitekter.sharepoint.com/sites/BIM7AA/Shared Documents/BIMTypeCode/BIMTypeCode 2022 DK - Trin 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="13_ncr:1_{3F041B59-6AFC-424D-948D-9AD492F7B426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A1D600A-C1B7-4C3A-80D5-5BDE5BF40CFD}"/>
+  <xr:revisionPtr revIDLastSave="351" documentId="13_ncr:1_{3F041B59-6AFC-424D-948D-9AD492F7B426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90BF7EC1-5100-4A44-B7C0-EBFA7473A621}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9AF57205-CBE7-40ED-98D9-5601CDE464FA}"/>
   </bookViews>
@@ -1011,7 +1011,7 @@
     <t>325</t>
   </si>
   <si>
-    <t>Indvendige ruder, blændfelter og karmprofiler,glasvægsystemer</t>
+    <t>Indvendige ruder, blændfelter og karmprofiler, glasvægsystemer</t>
   </si>
   <si>
     <t>Fx rude i indvendig glassystemvæg</t>
@@ -3446,15 +3446,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4C628B-1EF4-48E0-987B-7B5E51CAF0FF}">
   <dimension ref="A1:D416"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="134.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8635,7 +8635,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8672,7 +8672,7 @@
         <v>935</v>
       </c>
       <c r="B3" s="27">
-        <v>45089</v>
+        <v>45107</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>937</v>
@@ -8743,6 +8743,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="45a28cd4-7f0b-475c-a950-133468d4a055" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100309FAFF55864F54C915D256FC93189CF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe1e7545a2d0d55fa1e8750be1390eca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45a28cd4-7f0b-475c-a950-133468d4a055" xmlns:ns3="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d2010749b15634dfb9f9de390013312" ns2:_="" ns3:_="">
     <xsd:import namespace="45a28cd4-7f0b-475c-a950-133468d4a055"/>
@@ -8973,17 +8984,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="45a28cd4-7f0b-475c-a950-133468d4a055" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8994,11 +8994,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAF20CDE-BB8A-49EE-B078-C85F3FE67766}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8F02963-6FEE-4541-B3EF-7DD55FECBFE2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8F02963-6FEE-4541-B3EF-7DD55FECBFE2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAF20CDE-BB8A-49EE-B078-C85F3FE67766}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
